--- a/1_xl2go/input/task_bank_8.xlsx
+++ b/1_xl2go/input/task_bank_8.xlsx
@@ -28,7 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="196">
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
   <si>
     <t xml:space="preserve">Промежуточная аттестация 8 класс</t>
   </si>
@@ -42,7 +45,7 @@
     <t xml:space="preserve">mashup</t>
   </si>
   <si>
-    <t xml:space="preserve">Перевод_из_десятичной_в_двоичную</t>
+    <t xml:space="preserve">Перевод_из_десятичной_в_двоичну</t>
   </si>
   <si>
     <t xml:space="preserve">Сравнение_чисел</t>
@@ -596,9 +599,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">﹁ </t>
     </r>
@@ -616,9 +618,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">﹁ </t>
     </r>
@@ -660,9 +661,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">﹁ </t>
     </r>
@@ -680,9 +680,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">﹁ </t>
     </r>
@@ -718,9 +717,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">﹁ </t>
     </r>
@@ -738,9 +736,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">﹁ </t>
     </r>
@@ -776,9 +773,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">﹁ </t>
     </r>
@@ -796,9 +792,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">﹁ </t>
     </r>
@@ -834,9 +829,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">﹁ </t>
     </r>
@@ -854,9 +848,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">﹁ </t>
     </r>
@@ -1624,19 +1617,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="13"/>
@@ -1685,9 +1675,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1737,39 +1726,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1960,131 +1949,135 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.87"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="n">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="n">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="n">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="n">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="n">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="n">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="n">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="n">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2100,7 +2093,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B33"/>
@@ -2109,184 +2101,184 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="75.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="75.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
+      <c r="A1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>110000</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>110000</v>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B26" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
+      <c r="A33" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2304,7 +2296,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B51"/>
@@ -2313,275 +2304,275 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
+      <c r="A1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
+      <c r="A2" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
+      <c r="A3" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="4"/>
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
+      <c r="A6" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
+      <c r="A7" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="B41" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+      <c r="B50" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B29" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B41" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,7 +2590,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B29"/>
@@ -2608,163 +2598,163 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="80.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="80.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
+      <c r="A1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
+      <c r="A2" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>51</v>
+      <c r="A3" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <v>1011101</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>1101011</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>110000</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>1101011</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <v>110000</v>
-      </c>
-      <c r="B17" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
-        <v>1100000</v>
-      </c>
-      <c r="B23" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>17</v>
+      <c r="B28" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
+      <c r="A29" s="6" t="n">
         <v>1011100</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2782,7 +2772,6 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B54"/>
@@ -2791,288 +2780,288 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
+      <c r="A1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>58</v>
+      <c r="A2" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="B31" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="B42" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="4" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B32" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>17</v>
+      <c r="B53" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B54" s="4" t="n">
+      <c r="A54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3090,7 +3079,6 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B39"/>
@@ -3099,213 +3087,213 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="88.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="88.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
+      <c r="A1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
+      <c r="A2" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
+      <c r="A3" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="B30" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="4" t="s">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="B38" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3323,7 +3311,6 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B90"/>
@@ -3332,468 +3319,468 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="84.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="84.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
+      <c r="A1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>87</v>
+      <c r="A2" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>12121</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="n">
+        <v>11212</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="n">
+        <v>11212</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="n">
+        <v>12112</v>
+      </c>
+      <c r="B72" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <v>12121</v>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
-        <v>11212</v>
-      </c>
-      <c r="B36" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="n">
-        <v>11212</v>
-      </c>
-      <c r="B54" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="n">
-        <v>12112</v>
-      </c>
-      <c r="B72" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>17</v>
+      <c r="B89" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="n">
+      <c r="A90" s="6" t="n">
         <v>21211</v>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,7 +3798,6 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B129"/>
@@ -3820,663 +3806,663 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
+      <c r="A1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>131</v>
+      <c r="A2" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B103" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="n">
+      <c r="B128" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B77" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B103" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4494,7 +4480,6 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C54"/>
@@ -4503,290 +4488,290 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="88.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="88.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
+      <c r="A1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>176</v>
+      <c r="A2" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="B31" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="B32" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="B42" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="4" t="s">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B32" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B43" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>17</v>
+      <c r="B53" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="n">
+      <c r="A54" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="5" t="n">
         <v>1</v>
       </c>
     </row>
